--- a/data/abundance.xlsx
+++ b/data/abundance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claytonlamb/Dropbox/Documents/University/PDF/PDF Analyses/CulturalModesofLife/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claytonlamb/Dropbox/Documents/University/PDF/PDF Analyses/Culturally-Meaningful-Recovery/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD65FA62-3188-5841-8DA3-820C6AFB8F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42551A8-2EBE-754B-9528-B55CE05EDA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{F161E1C4-92F4-4B47-B5C1-36A7A207854A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -587,7 +589,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +720,12 @@
       <c r="D6">
         <v>38</v>
       </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>41</v>
+      </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
@@ -733,6 +741,12 @@
         <v>2022</v>
       </c>
       <c r="D7">
+        <v>114</v>
+      </c>
+      <c r="E7">
+        <v>114</v>
+      </c>
+      <c r="F7">
         <v>114</v>
       </c>
       <c r="G7" t="s">
